--- a/data/baidu.xlsx
+++ b/data/baidu.xlsx
@@ -1,62 +1,416 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
-    <t>search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>测试点</t>
   </si>
   <si>
-    <t>selenium 灰蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>用户名</t>
   </si>
   <si>
-    <t>Python selenium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>用户名正确，密码正确</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>youjia</t>
+  </si>
+  <si>
+    <t>用户名为空，密码正确</t>
+  </si>
+  <si>
+    <t>用户名正确，密码为空</t>
+  </si>
+  <si>
+    <t>qiu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -64,24 +418,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -130,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,7 +805,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,38 +1008,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="23.7115384615385" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="12.1730769230769" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/baidu.xlsx
+++ b/data/baidu.xlsx
@@ -14,36 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
-    <t>测试点</t>
+    <t>search</t>
   </si>
   <si>
-    <t>用户名</t>
+    <t>python</t>
   </si>
   <si>
-    <t>密码</t>
+    <t>selenium</t>
   </si>
   <si>
-    <t>结果</t>
-  </si>
-  <si>
-    <t>用户名正确，密码正确</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>youjia</t>
-  </si>
-  <si>
-    <t>用户名为空，密码正确</t>
-  </si>
-  <si>
-    <t>用户名正确，密码为空</t>
-  </si>
-  <si>
-    <t>qiu</t>
+    <t>postman</t>
   </si>
 </sst>
 </file>
@@ -51,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -66,7 +48,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,29 +66,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,8 +76,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,33 +93,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,8 +144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,17 +159,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,15 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,25 +207,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,67 +351,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,85 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,17 +404,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,28 +455,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,151 +487,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,13 +996,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="23.7115384615385" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -1028,46 +1010,24 @@
     <col min="4" max="4" width="12.1730769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/baidu.xlsx
+++ b/data/baidu.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
-    <t>search</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>python</t>
@@ -33,9 +36,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -48,24 +51,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,6 +64,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -86,43 +97,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,6 +110,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -144,9 +134,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +172,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -166,33 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,19 +210,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,163 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,45 +401,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,8 +422,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,7 +458,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,159 +480,172 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,13 +999,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="23.7115384615385" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -1010,24 +1013,36 @@
     <col min="4" max="4" width="12.1730769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/baidu.xlsx
+++ b/data/baidu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18240"/>
+    <workbookView windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
+    <t>search</t>
   </si>
   <si>
     <t>python</t>
@@ -36,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -51,7 +48,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -64,9 +61,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,127 +197,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -210,19 +207,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,31 +351,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,115 +375,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +398,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -415,15 +460,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,190 +498,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,13 +996,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="23.7115384615385" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -1013,36 +1010,24 @@
     <col min="4" max="4" width="12.1730769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
